--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642026.9276424182</v>
+        <v>639367.5369406983</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>413.3694774742427</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>319.6758027219778</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>135.9438818439016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744232</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.9659064044097</v>
       </c>
       <c r="T2" t="n">
         <v>214.6330037351249</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>330.0916665378419</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>116.6123180393074</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>118.334028941495</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.9352091687316</v>
       </c>
       <c r="S3" t="n">
         <v>152.4699175854099</v>
@@ -795,7 +795,7 @@
         <v>225.8733304156203</v>
       </c>
       <c r="V3" t="n">
-        <v>220.5366416097847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>22.99356051578155</v>
       </c>
       <c r="T4" t="n">
         <v>224.2403064031859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2717278710641</v>
       </c>
       <c r="V4" t="n">
-        <v>228.5881603531295</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>90.42212722700465</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>113.2302545435725</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385502</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
         <v>147.9721212459916</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>156.1337753525242</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>22.53590636345479</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>159.0938556120449</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>266.3961962275506</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>363.5377921948945</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>82.23746014651881</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>222.6434959374192</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>223.748220928931</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.094087147403</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,10 +1585,10 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>91.61978906182998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.3870054807193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022935</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936188</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012264</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>26.13627195705445</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="21">
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936222</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>41.02686156550138</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>115.7063133373721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.82863813027271</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337064</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.13627195705715</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471652</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4021082756234</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>176.5196562849264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771007</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>38.61213096654712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.791165263861</v>
+        <v>1321.747370259008</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.791165263861</v>
+        <v>1321.747370259008</v>
       </c>
       <c r="D2" t="n">
-        <v>861.5254666571102</v>
+        <v>1321.747370259008</v>
       </c>
       <c r="E2" t="n">
-        <v>475.7372140588659</v>
+        <v>935.9591176607643</v>
       </c>
       <c r="F2" t="n">
-        <v>468.7917133096624</v>
+        <v>929.0136169115608</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>511.4686901699015</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>188.5638389355805</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,16 +4331,16 @@
         <v>201.8591892086713</v>
       </c>
       <c r="K2" t="n">
-        <v>379.4516627518637</v>
+        <v>548.3329427769939</v>
       </c>
       <c r="L2" t="n">
-        <v>861.5596189006187</v>
+        <v>805.5783431828722</v>
       </c>
       <c r="M2" t="n">
-        <v>1414.604157847317</v>
+        <v>1358.622882129571</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.99208291076</v>
+        <v>1905.984262360878</v>
       </c>
       <c r="O2" t="n">
         <v>2000.662275091169</v>
@@ -4352,28 +4352,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R2" t="n">
-        <v>2533.623195170416</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.623195170416</v>
+        <v>2395.707099708833</v>
       </c>
       <c r="T2" t="n">
-        <v>2316.822181296552</v>
+        <v>2178.906085834969</v>
       </c>
       <c r="U2" t="n">
-        <v>2316.822181296552</v>
+        <v>2178.906085834969</v>
       </c>
       <c r="V2" t="n">
-        <v>2316.822181296552</v>
+        <v>2178.906085834969</v>
       </c>
       <c r="W2" t="n">
-        <v>1983.396255500752</v>
+        <v>1826.137430564855</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.930497239672</v>
+        <v>1826.137430564855</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.791165263861</v>
+        <v>1708.34721032313</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>147.2571220995299</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K3" t="n">
-        <v>176.1543362965154</v>
+        <v>309.7141828506129</v>
       </c>
       <c r="L3" t="n">
-        <v>628.4646899276686</v>
+        <v>762.0245364817661</v>
       </c>
       <c r="M3" t="n">
         <v>880.7805935960124</v>
@@ -4431,28 +4431,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2526.041137320628</v>
       </c>
       <c r="S3" t="n">
-        <v>2408.329310637115</v>
+        <v>2372.031119557588</v>
       </c>
       <c r="T3" t="n">
-        <v>2210.354128821525</v>
+        <v>2174.055937741998</v>
       </c>
       <c r="U3" t="n">
-        <v>1982.199249613828</v>
+        <v>1945.901058534301</v>
       </c>
       <c r="V3" t="n">
-        <v>1759.4349651595</v>
+        <v>1710.748950302558</v>
       </c>
       <c r="W3" t="n">
-        <v>1505.197608431298</v>
+        <v>1456.511593574357</v>
       </c>
       <c r="X3" t="n">
-        <v>1297.346108225765</v>
+        <v>1248.660093368824</v>
       </c>
       <c r="Y3" t="n">
-        <v>1089.585809460812</v>
+        <v>1040.89979460387</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>879.5584967969148</v>
       </c>
       <c r="S4" t="n">
-        <v>879.5584967969148</v>
+        <v>856.3326780941052</v>
       </c>
       <c r="T4" t="n">
-        <v>653.0531367936967</v>
+        <v>629.827318090887</v>
       </c>
       <c r="U4" t="n">
-        <v>653.0531367936967</v>
+        <v>340.6639566049637</v>
       </c>
       <c r="V4" t="n">
-        <v>422.1560051238689</v>
+        <v>340.6639566049637</v>
       </c>
       <c r="W4" t="n">
-        <v>422.1560051238689</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="X4" t="n">
-        <v>422.1560051238689</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.801183296161</v>
+        <v>1095.13528676737</v>
       </c>
       <c r="C5" t="n">
-        <v>884.8386663557492</v>
+        <v>1095.13528676737</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5031843082697</v>
+        <v>1095.13528676737</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5031843082697</v>
+        <v>709.3470341691254</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5172795186621</v>
+        <v>298.3611293795179</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>285.3137516563494</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,22 +4568,22 @@
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>294.3728469772319</v>
       </c>
       <c r="M5" t="n">
-        <v>1215.460820653039</v>
+        <v>926.0906579605437</v>
       </c>
       <c r="N5" t="n">
-        <v>1659.267837608651</v>
+        <v>1550.878957272188</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375728</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.632725909846</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>1606.569838566275</v>
+        <v>1821.369700298564</v>
       </c>
       <c r="W5" t="n">
-        <v>1253.801183296161</v>
+        <v>1468.60104502845</v>
       </c>
       <c r="X5" t="n">
-        <v>1253.801183296161</v>
+        <v>1095.13528676737</v>
       </c>
       <c r="Y5" t="n">
-        <v>1253.801183296161</v>
+        <v>1095.13528676737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>126.8151058240048</v>
       </c>
       <c r="H6" t="n">
         <v>97.15164357768663</v>
@@ -4644,52 +4644,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1367.541868311954</v>
+        <v>1270.743024525441</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964619</v>
+        <v>1469.399766178106</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717342</v>
+        <v>2018.835774930829</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2412.87253926279</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2215.883243422878</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1987.744455934044</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1752.592347702301</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1498.3549909741</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>708.8321389425173</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>539.8959560146104</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>539.8959560146104</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>391.9828624322172</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>391.9828624322172</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>223.3760174276006</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>595.3484448108507</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>340.6639566049637</v>
       </c>
       <c r="W7" t="n">
-        <v>890.480603772757</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="X7" t="n">
-        <v>890.480603772757</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="Y7" t="n">
-        <v>890.480603772757</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1163.744434193592</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1163.744434193592</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
         <v>366.9702768057399</v>
@@ -4802,16 +4802,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2293.25226150364</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1940.483606233525</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1940.483606233525</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.344274257714</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4884,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300792</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476953</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4960,16 +4960,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>990.0598878880306</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9917463258904</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.1991671823603</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754457</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207295</v>
+        <v>1127.224630526822</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>741.4363779285782</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194425</v>
+        <v>741.4363779285781</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>326.8206133697235</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592084</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656985</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625333</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087835</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484047</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535301</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.12796748</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464066</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796042</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345383</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926747</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048276</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3093.518498079658</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>3093.518498079658</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.052739818579</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818579</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,31 +5103,31 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390855</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592084</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592084</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335454</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914974</v>
+        <v>488.5008422034059</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948026</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
         <v>1532.266717861144</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.6687574943887</v>
+        <v>365.7608055583761</v>
       </c>
       <c r="C13" t="n">
-        <v>466.7325745664818</v>
+        <v>196.8246226304692</v>
       </c>
       <c r="D13" t="n">
-        <v>316.615935154146</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592084</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758651</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648149</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344816</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458881</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893321</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842772</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1358.644593842772</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1266.099352366176</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1038.109801468159</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>817.3172223246285</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536418</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257349</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133992</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310061</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,19 +5519,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400742</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121673</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121673</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6473,34 +6473,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057251</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778182</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654825</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.099465685179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.562808876162</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.562808876162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876162</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.48758222036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014473</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079495</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935965</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524074</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>961.4835393015908</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>740.6909601580606</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>417.9651836029414</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>913.2907898187001</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797189</v>
@@ -7093,10 +7093,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7400,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,19 +7436,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327641</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048572</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>153.5582610306292</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>190.527319860676</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>29.11089843987678</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8890728137618</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>134.9089359132298</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>251.9927313774034</v>
+        <v>434.8021074946085</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>306.0684860781997</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>206.1620907894546</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>255.5240487471576</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740195555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>104.0040375412039</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080933</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.903209274761</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.44497470121796</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295041</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2691783702338</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294694</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>176.3785887617869</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.23897475306453</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187197</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.62417772602114</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459324</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922445.9389581314</v>
+        <v>922445.938958131</v>
       </c>
     </row>
     <row r="6">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371983</v>
+        <v>366294.6221371981</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450033</v>
+      </c>
+      <c r="G2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="H2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="H2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="J2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
@@ -26350,10 +26350,10 @@
         <v>403573.299845003</v>
       </c>
       <c r="O2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450029</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545784</v>
+        <v>313577.1573545774</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704278</v>
+        <v>189308.2687704289</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273117</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202324</v>
+        <v>49839.5741320236</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7401.949902073129</v>
+        <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719624</v>
+        <v>7507.368461719663</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719649</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719671</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719672</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719654</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.36846171966</v>
-      </c>
       <c r="M4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719694</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738577</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-571253.8964694152</v>
+        <v>-571253.896469415</v>
       </c>
       <c r="C6" t="n">
-        <v>24181.86643737445</v>
+        <v>24181.86643737451</v>
       </c>
       <c r="D6" t="n">
         <v>-107215.7605774739</v>
       </c>
       <c r="E6" t="n">
-        <v>-39821.97018683894</v>
+        <v>-40043.10150081281</v>
       </c>
       <c r="F6" t="n">
-        <v>105635.1327889484</v>
+        <v>105600.3948635119</v>
       </c>
       <c r="G6" t="n">
-        <v>294943.4015593764</v>
+        <v>294908.6636339407</v>
       </c>
       <c r="H6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339405</v>
       </c>
       <c r="I6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339407</v>
       </c>
       <c r="J6" t="n">
-        <v>127338.2237493939</v>
+        <v>127303.4858239581</v>
       </c>
       <c r="K6" t="n">
-        <v>294943.4015593765</v>
+        <v>294908.6636339405</v>
       </c>
       <c r="L6" t="n">
-        <v>294943.4015593764</v>
+        <v>294908.6636339405</v>
       </c>
       <c r="M6" t="n">
-        <v>213045.9978466451</v>
+        <v>213011.2599212098</v>
       </c>
       <c r="N6" t="n">
-        <v>245103.8274273529</v>
+        <v>245069.0895019169</v>
       </c>
       <c r="O6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339405</v>
       </c>
       <c r="P6" t="n">
-        <v>294943.4015593762</v>
+        <v>294908.6636339405</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490104</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>112.5776651660801</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794741</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974121</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506379</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489718</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506377</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506379</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>319.6758027219778</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9438818439016</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.42897189744232</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9659064044097</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>19.14930217957112</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>269.6256206167462</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>48.19915470837235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.9352091687316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>12.26394553964062</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27585,25 +27585,25 @@
         <v>138.3012002237164</v>
       </c>
       <c r="S4" t="n">
-        <v>208.9037734431248</v>
+        <v>185.9102129273433</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2717278710641</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>23.54948297069851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>264.2609143936783</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>201.8106295316431</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>49.63920985095325</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>263.7247482946422</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>127.4291427245461</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>61.3560622425843</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>6.193308483574526</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.4004377856122</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>143.4721952425184</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-9.521272659185342e-13</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-3.151399141643196e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>156.4572543240563</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>385.0180160359773</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>714.932815742495</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,25 +32786,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>626.4629682828348</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>312.3207226334981</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,19 +34208,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>270.9716933356906</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,19 +34699,19 @@
         <v>152.133740041079</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3863369123155</v>
+        <v>349.9734884528511</v>
       </c>
       <c r="L2" t="n">
-        <v>486.977733483591</v>
+        <v>259.8438387938165</v>
       </c>
       <c r="M2" t="n">
         <v>558.6308474209077</v>
       </c>
       <c r="N2" t="n">
-        <v>115.5433586499426</v>
+        <v>552.8902830619268</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559683</v>
+        <v>95.63435629322296</v>
       </c>
       <c r="P2" t="n">
         <v>368.5709228715916</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.98013690053206</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.18910524948038</v>
+        <v>261.0781780632421</v>
       </c>
       <c r="L3" t="n">
         <v>456.8791450819729</v>
       </c>
       <c r="M3" t="n">
-        <v>254.8645491599433</v>
+        <v>119.9556132467135</v>
       </c>
       <c r="N3" t="n">
         <v>617.0270425174234</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>448.2899161167795</v>
+        <v>631.0992922339847</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>487.3789268404267</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
@@ -35030,10 +35030,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>315.9495933422817</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>505.2035778706899</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>17.90287454418211</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>253.676303952644</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655356</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>572.7987818204766</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066279</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,25 +36434,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>483.8667238383904</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36841,10 +36841,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>350.1679638549189</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558164</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
